--- a/data/bioassay_2_nutrients.xlsx
+++ b/data/bioassay_2_nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56E499E-3AB7-4E85-90D3-15BACC1479BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617096A2-7993-4C97-BD44-5A6EAFFEE7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DF75026-9C87-4DBC-9A6C-4EFD92C7F9EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{6DF75026-9C87-4DBC-9A6C-4EFD92C7F9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.21082373397087592</v>
+        <v>0.69236259814418277</v>
       </c>
       <c r="E2" s="3">
-        <v>1.7615971814445095</v>
+        <v>2.1413276231263385</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.15645161290322582</v>
+        <v>0.69236259814418277</v>
       </c>
       <c r="H2" s="3">
-        <v>1.9180487943477353</v>
+        <v>2.8336902212705213</v>
       </c>
       <c r="I2" s="3" t="e">
         <v>#DIV/0!</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="E3" s="3">
-        <v>4.1691133294186722</v>
+        <v>5.0678087080656669</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="H3" s="3">
-        <v>4.3175004261928658</v>
+        <v>5.7244825124910772</v>
       </c>
       <c r="I3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="E4" s="3">
-        <v>0.76335877862595414</v>
+        <v>0.92790863668807999</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.14677419354838711</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="H4" s="3">
-        <v>0.91013297217434119</v>
+        <v>1.5774446823697361</v>
       </c>
       <c r="I4" s="3" t="e">
         <v>#DIV/0!</v>
@@ -763,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.20212997174527275</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4662360540223136</v>
+        <v>2.9978586723768736</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="H5" s="3">
-        <v>2.6162360540223135</v>
+        <v>3.6616702355460387</v>
       </c>
       <c r="I5" s="3" t="e">
         <v>#DIV/0!</v>
@@ -789,22 +789,22 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>9.6758587324625056E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="D6">
-        <v>0.18691588785046731</v>
+        <v>0.6138472519628837</v>
       </c>
       <c r="E6">
-        <v>0.29359953024075158</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.23548387096774195</v>
+        <v>1.0421127765881515</v>
       </c>
       <c r="H6">
-        <v>0.52908340120849351</v>
+        <v>1.3990007137758744</v>
       </c>
       <c r="I6" t="e">
         <v>#DIV/0!</v>
@@ -818,22 +818,22 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.12901144976616674</v>
+        <v>0.57102069950035694</v>
       </c>
       <c r="D7">
-        <v>0.20212997174527275</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="E7">
-        <v>1.5854374633000585</v>
+        <v>1.9271948608137046</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.27903225806451615</v>
+        <v>1.2348322626695218</v>
       </c>
       <c r="H7">
-        <v>1.8644697213645747</v>
+        <v>3.1620271234832265</v>
       </c>
       <c r="I7" t="e">
         <v>#DIV/0!</v>
@@ -847,22 +847,22 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4.8379293662312528E-2</v>
+        <v>0.21413276231263384</v>
       </c>
       <c r="D8">
-        <v>0.18039556618126495</v>
+        <v>0.59243397573162027</v>
       </c>
       <c r="E8">
-        <v>0.17615971814445094</v>
+        <v>0.21413276231263384</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.18225806451612905</v>
+        <v>0.80656673804425405</v>
       </c>
       <c r="H8">
-        <v>0.35841778266058</v>
+        <v>1.0206995003568879</v>
       </c>
       <c r="I8" t="e">
         <v>#DIV/0!</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.20212997174527275</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="E9">
-        <v>1.7028772753963592</v>
+        <v>2.0699500356887941</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="H9">
-        <v>1.8528772753963592</v>
+        <v>2.7337615988579591</v>
       </c>
       <c r="I9" t="e">
         <v>#DIV/0!</v>
@@ -905,22 +905,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>1.6448959845186262</v>
+        <v>7.2805139186295502</v>
       </c>
       <c r="D10" s="3">
-        <v>0.21517061508367749</v>
+        <v>0.70663811563169177</v>
       </c>
       <c r="E10" s="3">
-        <v>2.9947152084556663</v>
+        <v>3.6402569593147751</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>1.8048387096774192</v>
+        <v>7.9871520342612419</v>
       </c>
       <c r="H10" s="3">
-        <v>4.7995539181330855</v>
+        <v>11.627408993576017</v>
       </c>
       <c r="I10" s="3" t="e">
         <v>#DIV/0!</v>
@@ -934,22 +934,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>1.6932752781809386</v>
+        <v>7.4946466809421848</v>
       </c>
       <c r="D11" s="3">
-        <v>0.22169093675287982</v>
+        <v>0.72805139186295509</v>
       </c>
       <c r="E11" s="3">
-        <v>2.3487962419260127</v>
+        <v>2.8551034975017844</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>1.8580645161290323</v>
+        <v>8.2226980728051391</v>
       </c>
       <c r="H11" s="3">
-        <v>4.2068607580550452</v>
+        <v>11.077801570306924</v>
       </c>
       <c r="I11" s="3" t="e">
         <v>#DIV/0!</v>
@@ -963,10 +963,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>1.6287695532978554</v>
+        <v>7.2091363311920063</v>
       </c>
       <c r="D12" s="3">
-        <v>0.21082373397087592</v>
+        <v>0.69236259814418277</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>1.7854838709677421</v>
+        <v>7.9014989293361886</v>
       </c>
       <c r="H12" s="3">
-        <v>1.7854838709677421</v>
+        <v>7.9014989293361886</v>
       </c>
       <c r="I12" s="3" t="e">
         <v>#DIV/0!</v>
@@ -992,22 +992,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>1.757781003064022</v>
+        <v>7.7801570306923633</v>
       </c>
       <c r="D13" s="3">
-        <v>0.21951749619647903</v>
+        <v>0.72091363311920054</v>
       </c>
       <c r="E13" s="3">
-        <v>1.8790369935408104</v>
+        <v>2.2840827980014278</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>1.9209677419354838</v>
+        <v>8.5010706638115643</v>
       </c>
       <c r="H13" s="3">
-        <v>3.8000047354762945</v>
+        <v>10.785153461812993</v>
       </c>
       <c r="I13" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1024,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.19343620951966964</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.86343055701800575</v>
+        <v>2.647723603487246</v>
       </c>
       <c r="G14">
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="H14">
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="I14">
-        <v>0.16625354051927616</v>
+        <v>0.23992705558747232</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1050,25 +1050,25 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0.1128850185453959</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="D15">
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="E15">
-        <v>4.1103934233705228</v>
+        <v>4.9964311206281229</v>
       </c>
       <c r="F15">
-        <v>0.74760450668632195</v>
+        <v>2.292541168873103</v>
       </c>
       <c r="G15">
-        <v>0.25806451612903225</v>
+        <v>1.1420413990007137</v>
       </c>
       <c r="H15">
-        <v>4.3684579394995549</v>
+        <v>6.1384725196288361</v>
       </c>
       <c r="I15">
-        <v>5.8432739509052505</v>
+        <v>2.677584421590212</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1079,25 +1079,25 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.12901144976616674</v>
+        <v>0.57102069950035694</v>
       </c>
       <c r="D16">
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="E16">
-        <v>1.5267175572519083</v>
+        <v>1.85581727337616</v>
       </c>
       <c r="F16">
-        <v>0.86343055701800575</v>
+        <v>2.647723603487246</v>
       </c>
       <c r="G16">
-        <v>0.27419354838709681</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="H16">
-        <v>1.800911105639005</v>
+        <v>3.0692362598144185</v>
       </c>
       <c r="I16">
-        <v>2.0857625329577596</v>
+        <v>1.1591981337372259</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1108,25 +1108,25 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.1128850185453959</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="D17">
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.70548594292934619</v>
+        <v>2.1633839199225058</v>
       </c>
       <c r="G17">
-        <v>0.25483870967741939</v>
+        <v>1.127765881513205</v>
       </c>
       <c r="H17">
-        <v>0.25483870967741939</v>
+        <v>1.127765881513205</v>
       </c>
       <c r="I17">
-        <v>0.36122436206066444</v>
+        <v>0.52129715448453662</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1137,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>0.85470085470085466</v>
+        <v>3.7830121341898644</v>
       </c>
       <c r="D18" s="3">
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>5.3385279561966943</v>
+        <v>16.370681304488215</v>
       </c>
       <c r="G18" s="3">
-        <v>1.0016129032258065</v>
+        <v>4.4325481798715201</v>
       </c>
       <c r="H18" s="3">
-        <v>1.0016129032258065</v>
+        <v>4.4325481798715201</v>
       </c>
       <c r="I18" s="3">
-        <v>0.18761967932811605</v>
+        <v>0.27076137501108671</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1169,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0.18908932840686807</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>4.9910498052016425</v>
+        <v>15.305134000645785</v>
       </c>
       <c r="G19" s="3">
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="H19" s="3">
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="I19" s="3">
-        <v>2.8114842792976723E-2</v>
+        <v>4.0573640889418949E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1198,22 +1198,22 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>4.727808781720543</v>
+        <v>14.497901194704554</v>
       </c>
       <c r="G20" s="3">
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="H20" s="3">
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="I20" s="3">
-        <v>3.1386019110568285E-2</v>
+        <v>4.5294404728407477E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0.18474244729406653</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>5.8334210803411608</v>
+        <v>17.888278979657734</v>
       </c>
       <c r="G21" s="3">
-        <v>0.1370967741935484</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="H21" s="3">
-        <v>0.1370967741935484</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="I21" s="3">
-        <v>2.3501950623034822E-2</v>
+        <v>3.3916593871834717E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1256,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.20865029341447508</v>
+        <v>0.68522483940042822</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.56860061071917445</v>
+        <v>1.7436228608330644</v>
       </c>
       <c r="G22">
-        <v>0.15483870967741933</v>
+        <v>0.68522483940042822</v>
       </c>
       <c r="H22">
-        <v>0.15483870967741933</v>
+        <v>0.68522483940042822</v>
       </c>
       <c r="I22">
-        <v>0.27231541218637989</v>
+        <v>0.39298913474502334</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1282,25 +1282,25 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.6126431220770843E-2</v>
+        <v>7.1377587437544618E-2</v>
       </c>
       <c r="D23">
-        <v>0.18691588785046731</v>
+        <v>0.6138472519628837</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.55807096977993054</v>
+        <v>1.7113335485954149</v>
       </c>
       <c r="G23">
-        <v>0.15483870967741936</v>
+        <v>0.68522483940042833</v>
       </c>
       <c r="H23">
-        <v>0.15483870967741936</v>
+        <v>0.68522483940042833</v>
       </c>
       <c r="I23">
-        <v>0.27745343883140594</v>
+        <v>0.40040402407983522</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1314,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.20212997174527275</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.62124881541539434</v>
+        <v>1.9050694220213109</v>
       </c>
       <c r="G24">
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="H24">
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="I24">
-        <v>0.24144915254237287</v>
+        <v>0.34844481544659384</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1343,22 +1343,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.18908932840686807</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.67389702011161423</v>
+        <v>2.0665159832095576</v>
       </c>
       <c r="G25">
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="H25">
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="I25">
-        <v>0.20822555443548385</v>
+        <v>0.30049852783725906</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1369,25 +1369,25 @@
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>9.6758587324625056E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="D26" s="3">
-        <v>0.20647685285807435</v>
+        <v>0.67808708065667378</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>4.6225123723281039</v>
+        <v>14.17500807232806</v>
       </c>
       <c r="G26" s="3">
-        <v>0.25</v>
+        <v>1.1063526052819415</v>
       </c>
       <c r="H26" s="3">
-        <v>0.25</v>
+        <v>1.1063526052819415</v>
       </c>
       <c r="I26" s="3">
-        <v>5.4083143507972664E-2</v>
+        <v>7.804952206282853E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1398,25 +1398,25 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>6.4505724883083371E-2</v>
+        <v>0.28551034975017847</v>
       </c>
       <c r="D27" s="3">
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>4.8225755501737391</v>
+        <v>14.788505004843399</v>
       </c>
       <c r="G27" s="3">
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="H27" s="3">
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="I27" s="3">
-        <v>4.3812755317650373E-2</v>
+        <v>6.3227918922541287E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1427,25 +1427,25 @@
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>0.48379293662312528</v>
+        <v>2.1413276231263385</v>
       </c>
       <c r="D28" s="3">
-        <v>0.20647685285807435</v>
+        <v>0.67808708065667378</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>4.4435084763609565</v>
+        <v>13.626089764288022</v>
       </c>
       <c r="G28" s="3">
-        <v>0.63709677419354849</v>
+        <v>2.8194147037830124</v>
       </c>
       <c r="H28" s="3">
-        <v>0.63709677419354849</v>
+        <v>2.8194147037830124</v>
       </c>
       <c r="I28" s="3">
-        <v>0.14337696835346278</v>
+        <v>0.20691297008568693</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1459,22 +1459,22 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>5.0331683689586182</v>
+        <v>15.434291249596383</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="H29" s="3">
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="I29" s="3">
-        <v>2.8840936698609796E-2</v>
+        <v>4.1621495703905456E-2</v>
       </c>
     </row>
   </sheetData>
